--- a/mapping/input_list_MOP.xlsx
+++ b/mapping/input_list_MOP.xlsx
@@ -31,22 +31,22 @@
     <t>no IRI</t>
   </si>
   <si>
-    <t>{'Electron transfer'}</t>
-  </si>
-  <si>
-    <t>{'Reduction'}</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MOP_0000615</t>
+    <t>{'oxidation'}</t>
+  </si>
+  <si>
+    <t>{'reduction'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000568</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MOP_0000569</t>
   </si>
   <si>
-    <t>{'label': 'Electron transfer'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Reduction'}</t>
+    <t>{'label': 'oxidation'}</t>
+  </si>
+  <si>
+    <t>{'label': 'reduction'}</t>
   </si>
 </sst>
 </file>
